--- a/experiments/suricata_with_stat/data/bm,bigFlows,2,1,tcpreplay.xlsx
+++ b/experiments/suricata_with_stat/data/bm,bigFlows,2,1,tcpreplay.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="20160405.230913" sheetId="1" r:id="rId1"/>
-    <sheet name="20160405.231437" sheetId="5" r:id="rId2"/>
-    <sheet name="PktT" sheetId="3" r:id="rId3"/>
-    <sheet name="BytesT" sheetId="4" r:id="rId4"/>
+    <sheet name="20160405.230913" sheetId="6" r:id="rId1"/>
+    <sheet name="20160405.231437" sheetId="7" r:id="rId2"/>
+    <sheet name="TCPREPLAY" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="23">
   <si>
     <t>NET</t>
   </si>
@@ -77,13 +76,19 @@
     <t>NIC</t>
   </si>
   <si>
-    <t>Inst0</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
-    <t>Inst1</t>
+    <t>Inst0.Bytes</t>
+  </si>
+  <si>
+    <t>Inst0.Pkts</t>
+  </si>
+  <si>
+    <t>Inst1.Pkts</t>
+  </si>
+  <si>
+    <t>Inst1.Bytes</t>
   </si>
   <si>
     <t>20160405.230913</t>
@@ -181,7 +186,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -189,13 +194,21 @@
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
+                <a:ea typeface="+mj-ea"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Packets sent to by 1x TCPreplay (Bare metal)</a:t>
+              <a:t>Packets</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Bytes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Sent by 2x TCPreplay (Bare metal)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -214,7 +227,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -222,7 +235,7 @@
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:ea typeface="+mj-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
@@ -233,27 +246,849 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TCPREPLAY!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inst0.Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TCPREPLAY!$A$3:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TCPREPLAY!$C$3:$C$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>6723913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10747856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9340555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11752785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12951848</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17455289</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17182952</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16155434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14617831</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12894980</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10311740</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10184921</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4738904</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15055321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8844670</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15681535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16346665</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14203170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11735725</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13741367</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5023222</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13106569</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18519727</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11891132</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19552374</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14104942</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14474083</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8274601</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16304703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24494360</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14040706</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10204648</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10703548</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13575392</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9514874</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12653644</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8867072</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8434817</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7603893</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8300875</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8610113</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8451382</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8625868</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5633146</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7246673</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12967345</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6389262</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12579696</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7071350</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8027055</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14021339</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8826831</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10157933</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7569785</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12514386</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10741347</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17920722</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15377810</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11972260</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>10504510</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TCPREPLAY!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inst1.Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>TCPREPLAY!$A$3:$A$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TCPREPLAY!$E$3:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>8665208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9402513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10072546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11676365</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14412418</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17447252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17525357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16308276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15409360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10986974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9869416</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9129719</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5608862</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15313799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11592121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13000474</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16142764</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15846350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9270516</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14012444</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4902619</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14839317</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18575552</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13313905</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17121429</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15775293</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13997357</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6973204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17466053</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24983983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12962633</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9314289</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13392594</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11030656</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11115886</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13274667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6220659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9665402</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6861504</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9194471</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7484969</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9128520</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7590022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6822640</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6222200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13864637</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5947824</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13259162</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5658874</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10951177</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12303850</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8740712</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10230578</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8909101</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10080840</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14390215</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16864873</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14502542</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11632267</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13231025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="186840480"/>
+        <c:axId val="186841040"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PktT!$B$2</c:f>
+              <c:f>TCPREPLAY!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inst0</c:v>
+                  <c:v>Inst0.Pkts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -264,7 +1099,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PktT!$A$3:$A$62</c:f>
+              <c:f>TCPREPLAY!$A$3:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -453,7 +1288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PktT!$B$3:$B$62</c:f>
+              <c:f>TCPREPLAY!$B$3:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -640,26 +1475,26 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>PktT!$C$2</c:f>
+              <c:f>TCPREPLAY!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Inst1</c:v>
+                  <c:v>Inst1.Pkts</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -670,7 +1505,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>PktT!$A$3:$A$62</c:f>
+              <c:f>TCPREPLAY!$A$3:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -859,7 +1694,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PktT!$C$3:$C$62</c:f>
+              <c:f>TCPREPLAY!$D$3:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -1046,7 +1881,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1056,442 +1891,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="413619152"/>
-        <c:axId val="413619712"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>PktT!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Time</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>PktT!$A$3:$A$62</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>145</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>150</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>155</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>165</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>175</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>180</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>185</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>195</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>205</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>215</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>220</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>225</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>235</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>240</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>270</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>275</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>290</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>295</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>PktT!$A$3:$A$62</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="60"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>145</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>150</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>155</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>165</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>175</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>180</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>185</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>195</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>205</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>215</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>220</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>225</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>235</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>240</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>270</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>275</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>290</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>295</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="1"/>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="186842160"/>
+        <c:axId val="186841600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="413619152"/>
+        <c:axId val="186840480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1504,7 +1910,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1517,7 +1923,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" cap="none" baseline="0"/>
                   <a:t>Time (second)</a:t>
                 </a:r>
               </a:p>
@@ -1537,7 +1943,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1575,7 +1981,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1590,7 +1996,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413619712"/>
+        <c:crossAx val="186841040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1598,7 +2004,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413619712"/>
+        <c:axId val="186841040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,6 +2024,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1625,7 +2045,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1638,14 +2058,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Packets per</a:t>
+                  <a:rPr lang="en-US" sz="1200" cap="none" baseline="0"/>
+                  <a:t>Traffic sent (Bps)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Second</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1663,7 +2078,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1710,1005 +2125,25 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413619152"/>
+        <c:crossAx val="186840480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Traffic sent by 1x TCPreplay (Bare metal) </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BytesT!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inst0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BytesT!$A$3:$A$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>295</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BytesT!$B$3:$B$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>6723913</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10747856</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9340555</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11752785</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12951848</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17455289</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17182952</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16155434</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14617831</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12894980</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10311740</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10184921</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4738904</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15055321</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8844670</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15681535</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16346665</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14203170</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11735725</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13741367</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5023222</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13106569</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18519727</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11891132</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19552374</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14104942</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14474083</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8274601</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16304703</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24494360</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14040706</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10204648</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10703548</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13575392</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9514874</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12653644</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8867072</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8434817</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7603893</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8300875</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8610113</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8451382</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8625868</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5633146</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7246673</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12967345</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6389262</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12579696</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7071350</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8027055</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14021339</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8826831</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10157933</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7569785</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12514386</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>10741347</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>17920722</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>15377810</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11972260</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10504510</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>BytesT!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inst1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>BytesT!$A$3:$A$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>295</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>BytesT!$C$3:$C$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
-                <c:pt idx="0">
-                  <c:v>8665208</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9402513</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10072546</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11676365</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14412418</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17447252</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17525357</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16308276</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15409360</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10986974</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9869416</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9129719</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5608862</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15313799</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11592121</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13000474</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16142764</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>15846350</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9270516</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14012444</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4902619</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14839317</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>18575552</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13313905</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17121429</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>15775293</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>13997357</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6973204</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>17466053</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24983983</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12962633</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9314289</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13392594</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11030656</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11115886</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13274667</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6220659</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>9665402</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6861504</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9194471</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7484969</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9128520</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7590022</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6822640</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6222200</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>13864637</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5947824</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13259162</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5658874</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>10951177</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12303850</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8740712</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10230578</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8909101</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10080840</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>14390215</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>16864873</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14502542</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11632267</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>13231025</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="415317360"/>
-        <c:axId val="415317920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="415317360"/>
+      <c:valAx>
+        <c:axId val="186841600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="r"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2721,129 +2156,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (second)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="415317920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="415317920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Speed (B/sec)</a:t>
+                  <a:rPr lang="en-US" sz="1200" cap="none" baseline="0"/>
+                  <a:t>Packets sent (count/s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2862,7 +2176,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2909,10 +2223,28 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415317360"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="186842160"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="186842160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186841600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2922,7 +2254,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2954,7 +2286,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2988,49 +2320,12 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
-  <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3071,7 +2366,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3082,7 +2377,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3105,14 +2400,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3128,7 +2423,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3148,22 +2443,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3172,35 +2462,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3209,33 +2509,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3257,15 +2553,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3275,7 +2569,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3284,14 +2578,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3300,17 +2593,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3319,14 +2612,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3338,26 +2631,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3376,7 +2658,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3395,17 +2677,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3414,17 +2696,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3445,7 +2726,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3453,7 +2734,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3484,10 +2765,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3502,13 +2783,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3517,14 +2798,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3545,20 +2826,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3579,535 +2859,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4116,55 +2869,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4183,7 +2901,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M61" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:M61" totalsRowShown="0">
   <autoFilter ref="A1:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Type"/>
@@ -4205,7 +2923,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A1:M61" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table145" displayName="Table145" ref="A1:M61" totalsRowShown="0">
   <autoFilter ref="A1:M61"/>
   <tableColumns count="13">
     <tableColumn id="1" name="Type"/>
@@ -4491,7 +3209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -9541,41 +8259,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -9584,11 +8309,19 @@
         <v>20436</v>
       </c>
       <c r="C3">
-        <f ca="1">INDIRECT("'" &amp; $C$1 &amp; "'!J" &amp; (ROW()-1))</f>
+        <f ca="1">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
+        <v>6723913</v>
+      </c>
+      <c r="D3">
+        <f ca="1">INDIRECT("'" &amp; $D$1 &amp; "'!J" &amp; (ROW()-1))</f>
         <v>25132</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f ca="1">INDIRECT("'" &amp; $D$1 &amp; "'!K" &amp; (ROW()-1))</f>
+        <v>8665208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -9597,11 +8330,19 @@
         <v>25485</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" ca="1" si="1">INDIRECT("'" &amp; $C$1 &amp; "'!J" &amp; (ROW()-1))</f>
+        <f t="shared" ref="C4:C63" ca="1" si="1">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
+        <v>10747856</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" ca="1" si="2">INDIRECT("'" &amp; $D$1 &amp; "'!J" &amp; (ROW()-1))</f>
         <v>23357</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" ref="E4:E63" ca="1" si="3">INDIRECT("'" &amp; $D$1 &amp; "'!K" &amp; (ROW()-1))</f>
+        <v>9402513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -9611,10 +8352,18 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
+        <v>9340555</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="2"/>
         <v>23937</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" ca="1" si="3"/>
+        <v>10072546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -9624,10 +8373,18 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
+        <v>11752785</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="2"/>
         <v>27722</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" ca="1" si="3"/>
+        <v>11676365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -9637,10 +8394,18 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
+        <v>12951848</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="2"/>
         <v>31545</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" ca="1" si="3"/>
+        <v>14412418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25</v>
       </c>
@@ -9650,10 +8415,18 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
+        <v>17455289</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="2"/>
         <v>35007</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" ca="1" si="3"/>
+        <v>17447252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>30</v>
       </c>
@@ -9663,10 +8436,18 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
+        <v>17182952</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="2"/>
         <v>34537</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" ca="1" si="3"/>
+        <v>17525357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>35</v>
       </c>
@@ -9676,10 +8457,18 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
+        <v>16155434</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="2"/>
         <v>33165</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f t="shared" ca="1" si="3"/>
+        <v>16308276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>40</v>
       </c>
@@ -9689,10 +8478,18 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
+        <v>14617831</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="2"/>
         <v>31302</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" ca="1" si="3"/>
+        <v>15409360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>45</v>
       </c>
@@ -9702,10 +8499,18 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
+        <v>12894980</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="2"/>
         <v>25290</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" ca="1" si="3"/>
+        <v>10986974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50</v>
       </c>
@@ -9715,10 +8520,18 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
+        <v>10311740</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="2"/>
         <v>24551</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" ca="1" si="3"/>
+        <v>9869416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>55</v>
       </c>
@@ -9728,10 +8541,18 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
+        <v>10184921</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="2"/>
         <v>24642</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f t="shared" ca="1" si="3"/>
+        <v>9129719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>60</v>
       </c>
@@ -9741,10 +8562,18 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
+        <v>4738904</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="2"/>
         <v>20603</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f t="shared" ca="1" si="3"/>
+        <v>5608862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>65</v>
       </c>
@@ -9754,10 +8583,18 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
+        <v>15055321</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="2"/>
         <v>29341</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" ca="1" si="3"/>
+        <v>15313799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>70</v>
       </c>
@@ -9767,10 +8604,18 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
+        <v>8844670</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="2"/>
         <v>24249</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" ca="1" si="3"/>
+        <v>11592121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>75</v>
       </c>
@@ -9780,10 +8625,18 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
+        <v>15681535</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="2"/>
         <v>28132</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" ca="1" si="3"/>
+        <v>13000474</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>80</v>
       </c>
@@ -9793,10 +8646,18 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
+        <v>16346665</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="2"/>
         <v>31327</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" ca="1" si="3"/>
+        <v>16142764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>85</v>
       </c>
@@ -9806,10 +8667,18 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
+        <v>14203170</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="2"/>
         <v>32037</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>15846350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>90</v>
       </c>
@@ -9819,10 +8688,18 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
+        <v>11735725</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="2"/>
         <v>25140</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
+        <v>9270516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>95</v>
       </c>
@@ -9832,10 +8709,18 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
+        <v>13741367</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="2"/>
         <v>29061</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>14012444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>100</v>
       </c>
@@ -9845,10 +8730,18 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
+        <v>5023222</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="2"/>
         <v>18744</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>4902619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>105</v>
       </c>
@@ -9858,10 +8751,18 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
+        <v>13106569</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="2"/>
         <v>32191</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" ca="1" si="3"/>
+        <v>14839317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>110</v>
       </c>
@@ -9871,10 +8772,18 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
+        <v>18519727</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="2"/>
         <v>33771</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
+        <v>18575552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>115</v>
       </c>
@@ -9884,10 +8793,18 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
+        <v>11891132</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="2"/>
         <v>29027</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" ca="1" si="3"/>
+        <v>13313905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>120</v>
       </c>
@@ -9897,10 +8814,18 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
+        <v>19552374</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="2"/>
         <v>33800</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" ca="1" si="3"/>
+        <v>17121429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>125</v>
       </c>
@@ -9910,10 +8835,18 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
+        <v>14104942</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="2"/>
         <v>31471</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" ca="1" si="3"/>
+        <v>15775293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>130</v>
       </c>
@@ -9923,10 +8856,18 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
+        <v>14474083</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="2"/>
         <v>29102</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" ca="1" si="3"/>
+        <v>13997357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>135</v>
       </c>
@@ -9936,10 +8877,18 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
+        <v>8274601</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="2"/>
         <v>21633</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" ca="1" si="3"/>
+        <v>6973204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>140</v>
       </c>
@@ -9949,10 +8898,18 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
+        <v>16304703</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="2"/>
         <v>33455</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <f t="shared" ca="1" si="3"/>
+        <v>17466053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>145</v>
       </c>
@@ -9962,10 +8919,18 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
+        <v>24494360</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="2"/>
         <v>42157</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <f t="shared" ca="1" si="3"/>
+        <v>24983983</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>150</v>
       </c>
@@ -9975,10 +8940,18 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
+        <v>14040706</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="2"/>
         <v>29139</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <f t="shared" ca="1" si="3"/>
+        <v>12962633</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>155</v>
       </c>
@@ -9988,10 +8961,18 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
+        <v>10204648</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="2"/>
         <v>24632</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f t="shared" ca="1" si="3"/>
+        <v>9314289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>160</v>
       </c>
@@ -10001,10 +8982,18 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
+        <v>10703548</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="2"/>
         <v>26453</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <f t="shared" ca="1" si="3"/>
+        <v>13392594</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>165</v>
       </c>
@@ -10014,10 +9003,18 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
+        <v>13575392</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="2"/>
         <v>24574</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <f t="shared" ca="1" si="3"/>
+        <v>11030656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>170</v>
       </c>
@@ -10027,10 +9024,18 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
+        <v>9514874</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="2"/>
         <v>24664</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <f t="shared" ca="1" si="3"/>
+        <v>11115886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>175</v>
       </c>
@@ -10040,10 +9045,18 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
+        <v>12653644</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="2"/>
         <v>27510</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <f t="shared" ca="1" si="3"/>
+        <v>13274667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>180</v>
       </c>
@@ -10053,10 +9066,18 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
+        <v>8867072</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="2"/>
         <v>20766</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <f t="shared" ca="1" si="3"/>
+        <v>6220659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>185</v>
       </c>
@@ -10066,10 +9087,18 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
+        <v>8434817</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="2"/>
         <v>23695</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <f t="shared" ca="1" si="3"/>
+        <v>9665402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>190</v>
       </c>
@@ -10079,10 +9108,18 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
+        <v>7603893</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="2"/>
         <v>19508</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f t="shared" ca="1" si="3"/>
+        <v>6861504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>195</v>
       </c>
@@ -10092,10 +9129,18 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
+        <v>8300875</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="2"/>
         <v>23046</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <f t="shared" ca="1" si="3"/>
+        <v>9194471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>200</v>
       </c>
@@ -10105,10 +9150,18 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
+        <v>8610113</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="2"/>
         <v>20750</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <f t="shared" ca="1" si="3"/>
+        <v>7484969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>205</v>
       </c>
@@ -10118,10 +9171,18 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
+        <v>8451382</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="2"/>
         <v>23427</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f t="shared" ca="1" si="3"/>
+        <v>9128520</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>210</v>
       </c>
@@ -10131,10 +9192,18 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
+        <v>8625868</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="2"/>
         <v>20371</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <f t="shared" ca="1" si="3"/>
+        <v>7590022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>215</v>
       </c>
@@ -10144,10 +9213,18 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
+        <v>5633146</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="2"/>
         <v>19361</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <f t="shared" ca="1" si="3"/>
+        <v>6822640</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>220</v>
       </c>
@@ -10157,10 +9234,18 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
+        <v>7246673</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="2"/>
         <v>18784</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <f t="shared" ca="1" si="3"/>
+        <v>6222200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>225</v>
       </c>
@@ -10170,10 +9255,18 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
+        <v>12967345</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="2"/>
         <v>26831</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <f t="shared" ca="1" si="3"/>
+        <v>13864637</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>230</v>
       </c>
@@ -10183,10 +9276,18 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
+        <v>6389262</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="2"/>
         <v>17182</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <f t="shared" ca="1" si="3"/>
+        <v>5947824</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>235</v>
       </c>
@@ -10196,10 +9297,18 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
+        <v>12579696</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="2"/>
         <v>23866</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f t="shared" ca="1" si="3"/>
+        <v>13259162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>240</v>
       </c>
@@ -10209,10 +9318,18 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
+        <v>7071350</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="2"/>
         <v>17290</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <f t="shared" ca="1" si="3"/>
+        <v>5658874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>245</v>
       </c>
@@ -10222,10 +9339,18 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
+        <v>8027055</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="2"/>
         <v>23586</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <f t="shared" ca="1" si="3"/>
+        <v>10951177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>250</v>
       </c>
@@ -10235,10 +9360,18 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
+        <v>14021339</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="2"/>
         <v>27404</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <f t="shared" ca="1" si="3"/>
+        <v>12303850</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>255</v>
       </c>
@@ -10248,10 +9381,18 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
+        <v>8826831</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="2"/>
         <v>23167</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <f t="shared" ca="1" si="3"/>
+        <v>8740712</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>260</v>
       </c>
@@ -10261,10 +9402,18 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
+        <v>10157933</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="2"/>
         <v>22592</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <f t="shared" ca="1" si="3"/>
+        <v>10230578</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>265</v>
       </c>
@@ -10274,10 +9423,18 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
+        <v>7569785</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="2"/>
         <v>23278</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <f t="shared" ca="1" si="3"/>
+        <v>8909101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>270</v>
       </c>
@@ -10287,10 +9444,18 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
+        <v>12514386</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="2"/>
         <v>21595</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <f t="shared" ca="1" si="3"/>
+        <v>10080840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>275</v>
       </c>
@@ -10300,10 +9465,18 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
+        <v>10741347</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="2"/>
         <v>26670</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <f t="shared" ca="1" si="3"/>
+        <v>14390215</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>280</v>
       </c>
@@ -10313,10 +9486,18 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
+        <v>17920722</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="2"/>
         <v>29750</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <f t="shared" ca="1" si="3"/>
+        <v>16864873</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>285</v>
       </c>
@@ -10326,10 +9507,18 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
+        <v>15377810</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="2"/>
         <v>28338</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <f t="shared" ca="1" si="3"/>
+        <v>14502542</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>290</v>
       </c>
@@ -10339,10 +9528,18 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
+        <v>11972260</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="2"/>
         <v>24014</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <f t="shared" ca="1" si="3"/>
+        <v>11632267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>295</v>
       </c>
@@ -10352,10 +9549,18 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
+        <v>10504510</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="2"/>
         <v>25866</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <f t="shared" ca="1" si="3"/>
+        <v>13231025</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>300</v>
       </c>
@@ -10367,8 +9572,16 @@
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>305</v>
       </c>
@@ -10376,12 +9589,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>310</v>
       </c>
@@ -10389,12 +9602,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C65">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>315</v>
       </c>
@@ -10402,12 +9615,12 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C66">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>320</v>
       </c>
@@ -10415,120 +9628,120 @@
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="C67">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>325</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B77" ca="1" si="2">INDIRECT("'" &amp; $B$1 &amp; "'!J" &amp; (ROW()-1))</f>
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <f t="shared" ref="C68:C69" ca="1" si="3">INDIRECT("'" &amp; $C$1 &amp; "'!J" &amp; (ROW()-1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B68:B77" ca="1" si="4">INDIRECT("'" &amp; $B$1 &amp; "'!J" &amp; (ROW()-1))</f>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D69" ca="1" si="5">INDIRECT("'" &amp; $D$1 &amp; "'!J" &amp; (ROW()-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>330</v>
       </c>
       <c r="B69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>335</v>
       </c>
       <c r="B70">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>340</v>
       </c>
       <c r="B71">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>345</v>
       </c>
       <c r="B72">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>350</v>
       </c>
       <c r="B73">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>355</v>
       </c>
       <c r="B74">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>360</v>
       </c>
       <c r="B75">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>365</v>
       </c>
       <c r="B76">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>370</v>
       </c>
       <c r="B77">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>375</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>385</v>
       </c>
@@ -11393,897 +10606,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <f ca="1">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>6723913</v>
-      </c>
-      <c r="C3">
-        <f ca="1">INDIRECT("'" &amp; $C$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>8665208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <f t="shared" ref="B4:B67" ca="1" si="0">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>10747856</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C64" ca="1" si="1">INDIRECT("'" &amp; $C$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>9402513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9340555</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>10072546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <f t="shared" ca="1" si="0"/>
-        <v>11752785</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>11676365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <f t="shared" ca="1" si="0"/>
-        <v>12951848</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>14412418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <f t="shared" ca="1" si="0"/>
-        <v>17455289</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>17447252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <f t="shared" ca="1" si="0"/>
-        <v>17182952</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>17525357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ca="1" si="0"/>
-        <v>16155434</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>16308276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>40</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ca="1" si="0"/>
-        <v>14617831</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>15409360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>45</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ca="1" si="0"/>
-        <v>12894980</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>10986974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>10311740</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>9869416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>55</v>
-      </c>
-      <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>10184921</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>9129719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>60</v>
-      </c>
-      <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>4738904</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>5608862</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>65</v>
-      </c>
-      <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>15055321</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>15313799</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>70</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>8844670</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>11592121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>75</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>15681535</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>13000474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>80</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>16346665</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>16142764</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>85</v>
-      </c>
-      <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>14203170</v>
-      </c>
-      <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>15846350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>90</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>11735725</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>9270516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>95</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>13741367</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>14012444</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>100</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>5023222</v>
-      </c>
-      <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>4902619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>105</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>13106569</v>
-      </c>
-      <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>14839317</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>110</v>
-      </c>
-      <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>18519727</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>18575552</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>115</v>
-      </c>
-      <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>11891132</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>13313905</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>120</v>
-      </c>
-      <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>19552374</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>17121429</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>125</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>14104942</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>15775293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>130</v>
-      </c>
-      <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>14474083</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>13997357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>135</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>8274601</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>6973204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>140</v>
-      </c>
-      <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>16304703</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>17466053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>145</v>
-      </c>
-      <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>24494360</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>24983983</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>150</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>14040706</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>12962633</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>155</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ca="1" si="0"/>
-        <v>10204648</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>9314289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>160</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ca="1" si="0"/>
-        <v>10703548</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>13392594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>165</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ca="1" si="0"/>
-        <v>13575392</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ca="1" si="1"/>
-        <v>11030656</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>170</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ca="1" si="0"/>
-        <v>9514874</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ca="1" si="1"/>
-        <v>11115886</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>175</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ca="1" si="0"/>
-        <v>12653644</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ca="1" si="1"/>
-        <v>13274667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>180</v>
-      </c>
-      <c r="B39">
-        <f t="shared" ca="1" si="0"/>
-        <v>8867072</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ca="1" si="1"/>
-        <v>6220659</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>185</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ca="1" si="0"/>
-        <v>8434817</v>
-      </c>
-      <c r="C40">
-        <f t="shared" ca="1" si="1"/>
-        <v>9665402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>190</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ca="1" si="0"/>
-        <v>7603893</v>
-      </c>
-      <c r="C41">
-        <f t="shared" ca="1" si="1"/>
-        <v>6861504</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>195</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ca="1" si="0"/>
-        <v>8300875</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="1"/>
-        <v>9194471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>200</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ca="1" si="0"/>
-        <v>8610113</v>
-      </c>
-      <c r="C43">
-        <f t="shared" ca="1" si="1"/>
-        <v>7484969</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>205</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ca="1" si="0"/>
-        <v>8451382</v>
-      </c>
-      <c r="C44">
-        <f t="shared" ca="1" si="1"/>
-        <v>9128520</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>210</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ca="1" si="0"/>
-        <v>8625868</v>
-      </c>
-      <c r="C45">
-        <f t="shared" ca="1" si="1"/>
-        <v>7590022</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>215</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ca="1" si="0"/>
-        <v>5633146</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ca="1" si="1"/>
-        <v>6822640</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>220</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ca="1" si="0"/>
-        <v>7246673</v>
-      </c>
-      <c r="C47">
-        <f t="shared" ca="1" si="1"/>
-        <v>6222200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>225</v>
-      </c>
-      <c r="B48">
-        <f t="shared" ca="1" si="0"/>
-        <v>12967345</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="1"/>
-        <v>13864637</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>230</v>
-      </c>
-      <c r="B49">
-        <f t="shared" ca="1" si="0"/>
-        <v>6389262</v>
-      </c>
-      <c r="C49">
-        <f t="shared" ca="1" si="1"/>
-        <v>5947824</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>235</v>
-      </c>
-      <c r="B50">
-        <f t="shared" ca="1" si="0"/>
-        <v>12579696</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ca="1" si="1"/>
-        <v>13259162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>240</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ca="1" si="0"/>
-        <v>7071350</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ca="1" si="1"/>
-        <v>5658874</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>245</v>
-      </c>
-      <c r="B52">
-        <f t="shared" ca="1" si="0"/>
-        <v>8027055</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ca="1" si="1"/>
-        <v>10951177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>250</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ca="1" si="0"/>
-        <v>14021339</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ca="1" si="1"/>
-        <v>12303850</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>255</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ca="1" si="0"/>
-        <v>8826831</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ca="1" si="1"/>
-        <v>8740712</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>260</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ca="1" si="0"/>
-        <v>10157933</v>
-      </c>
-      <c r="C55">
-        <f t="shared" ca="1" si="1"/>
-        <v>10230578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>265</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ca="1" si="0"/>
-        <v>7569785</v>
-      </c>
-      <c r="C56">
-        <f t="shared" ca="1" si="1"/>
-        <v>8909101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>270</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ca="1" si="0"/>
-        <v>12514386</v>
-      </c>
-      <c r="C57">
-        <f t="shared" ca="1" si="1"/>
-        <v>10080840</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>275</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ca="1" si="0"/>
-        <v>10741347</v>
-      </c>
-      <c r="C58">
-        <f t="shared" ca="1" si="1"/>
-        <v>14390215</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>280</v>
-      </c>
-      <c r="B59">
-        <f t="shared" ca="1" si="0"/>
-        <v>17920722</v>
-      </c>
-      <c r="C59">
-        <f t="shared" ca="1" si="1"/>
-        <v>16864873</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>285</v>
-      </c>
-      <c r="B60">
-        <f t="shared" ca="1" si="0"/>
-        <v>15377810</v>
-      </c>
-      <c r="C60">
-        <f t="shared" ca="1" si="1"/>
-        <v>14502542</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>290</v>
-      </c>
-      <c r="B61">
-        <f t="shared" ca="1" si="0"/>
-        <v>11972260</v>
-      </c>
-      <c r="C61">
-        <f t="shared" ca="1" si="1"/>
-        <v>11632267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>295</v>
-      </c>
-      <c r="B62">
-        <f t="shared" ca="1" si="0"/>
-        <v>10504510</v>
-      </c>
-      <c r="C62">
-        <f t="shared" ca="1" si="1"/>
-        <v>13231025</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>300</v>
-      </c>
-      <c r="B63">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>305</v>
-      </c>
-      <c r="B64">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>310</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>315</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>320</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>325</v>
-      </c>
-      <c r="B68">
-        <f t="shared" ref="B68:B69" ca="1" si="2">INDIRECT("'" &amp; $B$1 &amp; "'!K" &amp; (ROW()-1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>330</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>